--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2022-08-10.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2022-08-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="13545" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="31">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -97,7 +97,7 @@
     <t>Gaïa promenade</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Popeye, Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>Jo le Taxi</t>
@@ -1371,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3237,8 +3234,8 @@
   <sheetPr/>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3322,7 +3319,7 @@
     <row r="4" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -3456,7 +3453,7 @@
     <row r="11" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3555,7 +3552,7 @@
     <row r="16" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -3690,7 +3687,7 @@
     <row r="23" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3765,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="90" customHeight="1" spans="1:7">
@@ -3787,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A28" s="5"/>
       <c r="B28" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -3927,7 +3924,7 @@
     <row r="35" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A35" s="5"/>
       <c r="B35" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -4028,7 +4025,7 @@
     <row r="40" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A40" s="5"/>
       <c r="B40" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -4162,7 +4159,7 @@
     <row r="47" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A47" s="5"/>
       <c r="B47" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4262,7 +4259,7 @@
     <row r="52" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A52" s="5"/>
       <c r="B52" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -4398,7 +4395,7 @@
     <row r="59" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A59" s="5"/>
       <c r="B59" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -4498,7 +4495,7 @@
     <row r="64" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A64" s="5"/>
       <c r="B64" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -4634,7 +4631,7 @@
     <row r="71" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A71" s="5"/>
       <c r="B71" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="12">
         <v>1</v>
@@ -4733,7 +4730,7 @@
     <row r="76" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A76" s="5"/>
       <c r="B76" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -4868,7 +4865,7 @@
     <row r="83" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A83" s="5"/>
       <c r="B83" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="7">
         <v>0</v>
@@ -4943,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4969,7 +4966,7 @@
     <row r="88" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A88" s="5"/>
       <c r="B88" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C88" s="7">
         <v>0</v>
@@ -5102,7 +5099,7 @@
     <row r="95" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="5"/>
       <c r="B95" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" s="7">
         <v>0</v>
@@ -5136,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
